--- a/Gra Pstryk! (boardgamearena.com)/Testy rozgrywki.xlsx
+++ b/Gra Pstryk! (boardgamearena.com)/Testy rozgrywki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f3cbb08f5a0672/Dokumenty/Kornelia/Tester - Kornelia/Gra pstryk/Do Githuba/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repozytoria\portfolio\Gra Pstryk! (boardgamearena.com)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1922" documentId="8_{40DD613F-F899-4652-BD00-03325CCE137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F1D39C-83B5-4B28-B6C6-97A2FF05858D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331DDD2E-6B84-434A-8FD9-4BA6B1BACEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EE067B3-1FDC-45B4-8848-28AD10792F87}"/>
   </bookViews>
@@ -470,8 +470,7 @@
       </rPr>
       <t xml:space="preserve">
 Dokument ten opisuje działania testowe, które mają na celu sprawdzenie poprawności prowadzenia rozgrywki gry "Pstryk!" na stronie https://boardgamearena.com/. 
-W tym pliku sprawdzony został sposób poruszania się żetonów po głównej planszy. Traktuję instrukcję gry "Pstryk!" jako dokumentację dla przebiegu rozgrywki (strony 2 i 3).
-Instrukcja znajduje się w pliku.......</t>
+W tym pliku sprawdzony został sposób poruszania się żetonów po głównej planszy. Traktuję instrukcję gry "Pstryk!" jako dokumentację dla przebiegu rozgrywki (strony 2 i 3).</t>
     </r>
   </si>
 </sst>
@@ -1167,6 +1166,15 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1176,6 +1184,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1203,28 +1226,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,51 +1316,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1344,6 +1343,24 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1362,6 +1379,15 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1380,18 +1406,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1418,21 +1432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2002,43 +2001,43 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90">
+      <c r="A4" s="98">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="80" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:9" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="49">
         <v>1</v>
       </c>
@@ -2057,9 +2056,9 @@
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="56">
         <v>2</v>
       </c>
@@ -2078,43 +2077,43 @@
       <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83">
+      <c r="A8" s="91">
         <v>2</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="93" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="10" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="51">
         <v>1</v>
       </c>
@@ -2133,9 +2132,9 @@
       <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="55">
         <v>2</v>
       </c>
@@ -2154,43 +2153,43 @@
       <c r="I11" s="55"/>
     </row>
     <row r="12" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92">
+      <c r="A12" s="80">
         <v>3</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="49">
         <v>1</v>
       </c>
@@ -2209,9 +2208,9 @@
       <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="57">
         <v>2</v>
       </c>
@@ -2230,43 +2229,43 @@
       <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="95">
+      <c r="A16" s="86">
         <v>4</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="86" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="90"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
     </row>
     <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="53">
         <v>1</v>
       </c>
@@ -2285,9 +2284,9 @@
       <c r="I18" s="52"/>
     </row>
     <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="58">
         <v>2</v>
       </c>
@@ -2306,43 +2305,43 @@
       <c r="I19" s="58"/>
     </row>
     <row r="20" spans="1:9" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92">
+      <c r="A20" s="80">
         <v>5</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="80" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="E20" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
     </row>
     <row r="21" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="49">
         <v>1</v>
       </c>
@@ -2361,9 +2360,9 @@
       <c r="I22" s="48"/>
     </row>
     <row r="23" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="54">
         <v>2</v>
       </c>
@@ -2438,6 +2437,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E8:I8"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="C20:C23"/>
@@ -2453,16 +2462,6 @@
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2552,43 +2551,43 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="125">
+      <c r="A4" s="106">
         <v>1</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="108" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="102"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="125"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="125"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="67">
         <v>1</v>
       </c>
@@ -2607,9 +2606,9 @@
       <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="126"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="68">
         <v>2</v>
       </c>
@@ -2628,43 +2627,43 @@
       <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:10" ht="51.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="119">
+      <c r="A8" s="100">
         <v>2</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="103" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="63">
         <v>1</v>
       </c>
@@ -2683,9 +2682,9 @@
       <c r="I10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="121"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="66">
         <v>2</v>
       </c>
@@ -2704,43 +2703,43 @@
       <c r="I11" s="66"/>
     </row>
     <row r="12" spans="1:10" ht="60.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="116">
+      <c r="A12" s="112">
         <v>3</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="112" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="67">
         <v>1</v>
       </c>
@@ -2759,9 +2758,9 @@
       <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="118"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="61">
         <v>2</v>
       </c>
@@ -2780,9 +2779,9 @@
       <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -2792,9 +2791,9 @@
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
@@ -2804,9 +2803,9 @@
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -2816,9 +2815,9 @@
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -2828,9 +2827,9 @@
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="31"/>
@@ -2840,9 +2839,9 @@
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -2853,12 +2852,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E5:I5"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="C19:C21"/>
@@ -2868,12 +2867,12 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3156,54 +3155,54 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="150">
+      <c r="A4" s="159">
         <v>1</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="151"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="160"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="165"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="161"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="163"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="168"/>
     </row>
     <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="151"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="38">
         <v>1</v>
       </c>
@@ -3222,9 +3221,9 @@
       <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="151"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="39">
         <v>2</v>
       </c>
@@ -3243,9 +3242,9 @@
       <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="152"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="40">
         <v>3</v>
       </c>
@@ -3264,30 +3263,30 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139">
+      <c r="A10" s="145">
         <v>2</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="148" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="145" t="s">
+      <c r="E10" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="156"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="35" t="s">
         <v>8</v>
       </c>
@@ -3298,9 +3297,9 @@
       <c r="I11" s="138"/>
     </row>
     <row r="12" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="35">
         <v>1</v>
       </c>
@@ -3319,9 +3318,9 @@
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="140"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="35">
         <v>2</v>
       </c>
@@ -3340,9 +3339,9 @@
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="35">
         <v>3</v>
       </c>
@@ -3361,9 +3360,9 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="141"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
       <c r="D15" s="41">
         <v>4</v>
       </c>
@@ -3382,30 +3381,30 @@
       <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:9" ht="45.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="164">
+      <c r="A16" s="139">
         <v>3</v>
       </c>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="142" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="166" t="s">
+      <c r="E16" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="168"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="153"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="39" t="s">
         <v>8</v>
       </c>
@@ -3416,9 +3415,9 @@
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="39">
         <v>1</v>
       </c>
@@ -3437,9 +3436,9 @@
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="39">
         <v>2</v>
       </c>
@@ -3458,9 +3457,9 @@
       <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="39">
         <v>3</v>
       </c>
@@ -3479,9 +3478,9 @@
       <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="39">
         <v>4</v>
       </c>
@@ -3500,9 +3499,9 @@
       <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="152"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="43">
         <v>5</v>
       </c>
@@ -3521,30 +3520,30 @@
       <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="139">
+      <c r="A23" s="145">
         <v>4</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="148" t="s">
         <v>97</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="145" t="s">
+      <c r="E23" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="147"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="156"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="35" t="s">
         <v>8</v>
       </c>
@@ -3555,9 +3554,9 @@
       <c r="I24" s="138"/>
     </row>
     <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="140"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
+      <c r="A25" s="146"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="35">
         <v>1</v>
       </c>
@@ -3576,9 +3575,9 @@
       <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="140"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
       <c r="D26" s="35">
         <v>2</v>
       </c>
@@ -3597,9 +3596,9 @@
       <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="140"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="35">
         <v>3</v>
       </c>
@@ -3618,9 +3617,9 @@
       <c r="I27" s="35"/>
     </row>
     <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="140"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
       <c r="D28" s="35">
         <v>4</v>
       </c>
@@ -3639,9 +3638,9 @@
       <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
+      <c r="A29" s="146"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
       <c r="D29" s="35">
         <v>5</v>
       </c>
@@ -3660,9 +3659,9 @@
       <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="141"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
       <c r="D30" s="41">
         <v>6</v>
       </c>
@@ -3683,6 +3682,17 @@
     <row r="31" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="E6:I6"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="B16:B22"/>
@@ -3692,17 +3702,6 @@
     <mergeCell ref="C23:C30"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="E23:I23"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
